--- a/data/fmps/fmp_key.xlsx
+++ b/data/fmps/fmp_key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/fmps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ADCE62CB-1DD3-B64E-9C94-9DD5528CE964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8BBA7-6272-8C42-92FF-24AD526D5AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{E587AFB4-06A8-AA49-9D68-C6D34FFB4408}"/>
   </bookViews>
@@ -280,20 +280,20 @@
     <t>Pacific Groundfish</t>
   </si>
   <si>
-    <t>NE Multi-species Fishery</t>
-  </si>
-  <si>
     <t>NE Skate Complex</t>
   </si>
   <si>
     <t>NE Small-Mesh Multispecies (Whiting)</t>
+  </si>
+  <si>
+    <t>NE Multispecies Fishery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1149,18 +1149,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B61A368-C137-1746-B62F-1970BB44F116}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1344,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1366,10 +1366,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1377,10 +1377,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>45</v>
       </c>

--- a/data/fmps/fmp_key.xlsx
+++ b/data/fmps/fmp_key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/fmps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8BBA7-6272-8C42-92FF-24AD526D5AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E76371-8111-0943-AD8F-FA3B14873D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{E587AFB4-06A8-AA49-9D68-C6D34FFB4408}"/>
   </bookViews>
@@ -235,9 +235,6 @@
     <t>Spiny Lobster</t>
   </si>
   <si>
-    <t>Pacific Pelagic Fisheries</t>
-  </si>
-  <si>
     <t>American Samoa Archipelago</t>
   </si>
   <si>
@@ -287,13 +284,16 @@
   </si>
   <si>
     <t>NE Multispecies Fishery</t>
+  </si>
+  <si>
+    <t>Pacific Pelagic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1150,17 +1150,17 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1344,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1366,10 +1366,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1377,10 +1377,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1399,10 +1399,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1410,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1421,10 +1421,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1432,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1443,10 +1443,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1454,10 +1454,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1465,10 +1465,10 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1476,10 +1476,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1487,10 +1487,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1498,10 +1498,10 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1575,10 +1575,10 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1586,10 +1586,10 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1597,10 +1597,10 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1608,10 +1608,10 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
